--- a/data/grant_es.xlsx
+++ b/data/grant_es.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE344FC0-1C56-4C69-B268-973A4A65EFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE451D1F-8DE4-445B-99B6-AF2533103CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>what</t>
   </si>
@@ -40,55 +40,106 @@
     <t>Bogota, Colombia</t>
   </si>
   <si>
-    <t>Ene. 2018 - Ene. 2019</t>
-  </si>
-  <si>
     <t>Ene. 2018 - Dic. 2021</t>
   </si>
   <si>
-    <t>Ene. 2017 - Dic. 2020</t>
-  </si>
-  <si>
     <t>Ene. 2016 - Dic. 2019</t>
   </si>
   <si>
     <t>Proyecto: Señales perceptibles de salud física y mental en rostros, voces y olores corporales, y su relación con niveles hormonales</t>
   </si>
   <si>
-    <t>Proyecto: Efecto de señales estáticas evolutivamente relevantes (sexo, dominancia y atractivo) en el procesamiento cortical de rostros humanos</t>
-  </si>
-  <si>
-    <t>Proyecto: Efectos de los niveles hormonales, masculinidad y feminidad, en la discriminación tonal en hombres y mujeres</t>
-  </si>
-  <si>
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
   </si>
   <si>
     <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
   </si>
   <si>
-    <t>COP\$84.000.000</t>
-  </si>
-  <si>
     <t>COP\$136.586.537</t>
   </si>
   <si>
     <t>COP\$80.000.000</t>
   </si>
   <si>
-    <t>COP\$13.000.000</t>
-  </si>
-  <si>
-    <t>\href{https://minciencias.gov.co/convocatorias/investigacion/convocatoria-programa-estancias-postdoctorales-beneficiarios-colciencias}{Convocatoria programa de Estancias Postdoctorales beneficiarios Colciencias 2017}</t>
-  </si>
-  <si>
     <t>IX \href{https://www.unbosque.edu.co/investigaciones/convocatorias-investigacion}{Convocatoria Interna para la Financiación de Proyectos de Investigación}, 2017</t>
   </si>
   <si>
-    <t>VIII \href{https://www.unbosque.edu.co/investigaciones/convocatorias-investigacion}{Convocatoria Interna para la Financiación de Proyectos de Investigación}, 2016</t>
-  </si>
-  <si>
     <t>VII \href{https://www.unbosque.edu.co/investigaciones/convocatorias-investigacion}{Convocatoria Interna para la Financiación de Proyectos de Investigación}, 2015</t>
+  </si>
+  <si>
+    <t>Convocatoria Interna de Investigación Financiera de la Universidad de San Buenaventura, 2014</t>
+  </si>
+  <si>
+    <t>Jun.2014 - Jun.2015</t>
+  </si>
+  <si>
+    <t>\href{https://www.usbmed.edu.co/}{Universidad San Buenaventura de Medellín}</t>
+  </si>
+  <si>
+    <t>Medellín, Colombia</t>
+  </si>
+  <si>
+    <t>Proyecto: Factores mediadores de la Reserva Cognitiva y su relación con el perfil neuropsicológico del adulto mayor en proceso de envejecimiento normal</t>
+  </si>
+  <si>
+    <t>COP\$20.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rol: Co-investigadora </t>
+  </si>
+  <si>
+    <t>Rol: Investigadora principal</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/convocatorias/vocaciones-cientificas-ctei/convocatoria-para-el-fortalecimiento-proyectos-en}{Convocatoria para el fortalecimiento de proyectos en ejecución de CTeI en ciencias de la salud con talento joven e impacto regional 2020}</t>
+  </si>
+  <si>
+    <t>COP\$76.000.000</t>
+  </si>
+  <si>
+    <t>Ene. 2021 - Ene. 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto: Viabilidad de nuevas intervenciones para mejorar la implementación de programas de salud sexual y reproductiva en Colombia </t>
+  </si>
+  <si>
+    <t>COP\$192.000.000</t>
+  </si>
+  <si>
+    <t>Barranquilla, Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP\$356.040.884 </t>
+  </si>
+  <si>
+    <t>Proyecto: Efecto de la disponibilidad de recursos sobre las preferencias de las mujeres por la masculinidad de los rostros en interacción con factores hormonales, cognitivos, y socio-contextuales como la escasez de recursos real y la exposición a violencias: un estudio experimental usando eye-tracking</t>
+  </si>
+  <si>
+    <t>IX \href{https://www.unbosque.edu.co/centro-informacion/convocatoria/xiv-convocatoria-interna-de-investigaciones}{Convocatoria Interna para la Financiación de Proyectos de Investigación}, 2024</t>
+  </si>
+  <si>
+    <t>Ene. 2024 - Ene. 2026</t>
+  </si>
+  <si>
+    <t>Proyecto: Efecto del control de los recursos real y simulado sobre las preferencias de mujeres andrófilas por la masculinidad en rostros de hombres: un estudio experimental usando rastreo ocular</t>
+  </si>
+  <si>
+    <t>Dic. 2023 - Ene. 2025</t>
+  </si>
+  <si>
+    <t>COP\$90.000.000</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/convocatorias/construccion-paz-programa-y-proyectos-ctei-fortalecimiento-capacidades-para-la}{Estancia Postdoctoral - Convocatoria 935-2023  - Programa orquídeas. Mujeres en la ciencia: agentes para la paz: Agentes para la Paz 2023}</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/convocatorias/oportunidades-formacion/convocatoria-programa-estancias-postdoctorales-en-entidades}{Estancia Postdoctoral - Convocatoria Programa de Estancias Postdoctorales en entidades del SNCTeI 2019}</t>
+  </si>
+  <si>
+    <t>Proyecto: Sesgos atencionales y su relación con la variabilidad de la frecuencia cardíaca como predictores del estado emocional de personas sin trastornos afectivos de la ciudad de Bogotá</t>
+  </si>
+  <si>
+    <t>Proyecto: Diferencias en el patrón de rastreo ocular hacia estímulos sexualmente preferidos en hombres condenados por delitos sexuales y población en general</t>
   </si>
 </sst>
 </file>
@@ -585,48 +636,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,7 +693,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -938,22 +989,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,118 +1021,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/grant_es.xlsx
+++ b/data/grant_es.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE451D1F-8DE4-445B-99B6-AF2533103CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E499907-CF2C-4EB6-AAF1-539A72543EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -693,9 +693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,7 +733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -839,7 +839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -981,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,21 +1021,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,34 +1043,34 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
